--- a/biology/Botanique/Truffe_blanche/Truffe_blanche.xlsx
+++ b/biology/Botanique/Truffe_blanche/Truffe_blanche.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tuber magnatum
 La truffe blanche (Tuber magnatum), appelée aussi truffe blanche d'Alba ou truffe du Piémont, est une espèce de champignons ascomycètes comestibles, de la famille des Tuberaceae.
@@ -513,10 +525,12 @@
           <t>Aires de récolte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De faible production, la truffe blanche (en italien, tartufo bianco) au parfum de camembert à l'ail[1] se développe spontanément dans tout le sud du Piémont (Langhe, Roero, Monferrato et Monregalese). Alba, commune du Piémont qui donne une dénomination d'origine à la truffe, fête sa récolte chaque année par la plus ancienne des foires de la truffe blanche ; ce marché qui s'articule autour de diverses manifestations s'achève par les ventes aux enchères mondiales de la truffe, au château de Grinziane Cavour (it) où sont adjugés les plus beaux spécimens.
-Les autres régions italiennes récoltantes sont les zones de la haute Ombrie  et de la province de Pesaro et Urbino, qui ont comme référence le marché d'Acqualagna, le plus important d'italie après celui d'Alba. Autres foires importantes se déroulent en Ombrie, à  Città di Castello  et Gubbio, au mois de novembre. En Toscane, renommée est la truffe blanche de San Miniato où depuis environ quarante ans est organisée une foire nationale. En dehors de l'Italie, il est possible de la trouver aussi en Istrie, plus précisément dans la forêt de  Motovun  en Croatie. En France, une truffe blanche d'Alba sauvage a été découverte en 2011 dans la Drôme[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De faible production, la truffe blanche (en italien, tartufo bianco) au parfum de camembert à l'ail se développe spontanément dans tout le sud du Piémont (Langhe, Roero, Monferrato et Monregalese). Alba, commune du Piémont qui donne une dénomination d'origine à la truffe, fête sa récolte chaque année par la plus ancienne des foires de la truffe blanche ; ce marché qui s'articule autour de diverses manifestations s'achève par les ventes aux enchères mondiales de la truffe, au château de Grinziane Cavour (it) où sont adjugés les plus beaux spécimens.
+Les autres régions italiennes récoltantes sont les zones de la haute Ombrie  et de la province de Pesaro et Urbino, qui ont comme référence le marché d'Acqualagna, le plus important d'italie après celui d'Alba. Autres foires importantes se déroulent en Ombrie, à  Città di Castello  et Gubbio, au mois de novembre. En Toscane, renommée est la truffe blanche de San Miniato où depuis environ quarante ans est organisée une foire nationale. En dehors de l'Italie, il est possible de la trouver aussi en Istrie, plus précisément dans la forêt de  Motovun  en Croatie. En France, une truffe blanche d'Alba sauvage a été découverte en 2011 dans la Drôme.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Description de l'espèce</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Sporophore
 Il mesure entre 2 et 9 cm, il est globuleux, irrégulier, velouté et de couleur ocre.
@@ -580,10 +596,12 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Champignon symbiotique, souterrain (hypogé), il pousse sous terre à des profondeurs pouvant aller de quelques centimètres à plus d'un mètre en association avec des feuillus (peupliers, tilleuls, noisetier, chênes etc.) dans les sols argileux, souvent le long des cours d'eau, en été-automne-hiver. 
-Depuis quelques années, la recherche agronomique en France via l'Institut national de recherche pour l'agriculture, l'alimentation et l'environnement a permis, après 20 ans d'errance et d'impasses, de développer une méthode fiable de culture de la truffe blanche[3]. 
+Depuis quelques années, la recherche agronomique en France via l'Institut national de recherche pour l'agriculture, l'alimentation et l'environnement a permis, après 20 ans d'errance et d'impasses, de développer une méthode fiable de culture de la truffe blanche. 
 </t>
         </is>
       </c>
